--- a/PastaDocumentos/Orcamento.xlsx
+++ b/PastaDocumentos/Orcamento.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Downloads\ExemploGIT\3SIT-ExemploGIT-2024\PastaDocumentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2B8467-5F56-49C5-B196-E603E2A66609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15CB975B-8383-4858-8A64-D0AFEEC7BCE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Orçamento do Projeto</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>preco total</t>
+  </si>
+  <si>
+    <t>rejunte</t>
   </si>
 </sst>
 </file>
@@ -125,14 +128,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -414,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E5"/>
+  <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -426,70 +430,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>30</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="3">
         <v>13</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <f>C3*D3</f>
         <v>390</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>5</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="3">
         <v>5</v>
       </c>
-      <c r="E4" s="4">
-        <f t="shared" ref="E4:E5" si="0">C4*D4</f>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4:E6" si="0">C4*D4</f>
         <v>25</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>6</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>6</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
         <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="1">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>34</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
